--- a/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI02HYPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8628" yWindow="3540" windowWidth="25440" windowHeight="13608" activeTab="1"/>
+    <workbookView xWindow="8625" yWindow="3540" windowWidth="25440" windowHeight="13605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>GI02HYPM-MFC04-01-ZPLSGA000</t>
   </si>
   <si>
-    <t>GI02HYPM-WFP02-00-ENG000000</t>
-  </si>
-  <si>
     <t>GI02HYPM-00002</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>GI02HYPM-RIM01-02-CTDMOG039</t>
   </si>
   <si>
-    <t>GI02HYPM-GP001-00-ENG000000</t>
-  </si>
-  <si>
     <r>
       <t>GI02HYPM-RIM01-02-CTDMOG0</t>
     </r>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>N00172</t>
+  </si>
+  <si>
+    <t>GI02HYPM-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI02HYPM-WFP02-00-WFPENG000</t>
   </si>
 </sst>
 </file>
@@ -1364,28 +1364,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>0</v>
@@ -1423,15 +1423,15 @@
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="43">
         <v>2</v>
@@ -1444,16 +1444,16 @@
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>39</v>
       </c>
       <c r="J2" s="43">
         <v>2667</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="47">
@@ -1465,49 +1465,49 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="5:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -1529,31 +1529,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E10"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="11" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="15" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="15" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="5" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="3"/>
+    <col min="15" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
@@ -1577,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1588,21 +1588,21 @@
       <c r="H2" s="19"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="15">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="10">
         <v>2350</v>
@@ -1617,21 +1617,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ref="F4:F10" si="0">F3</f>
@@ -1645,21 +1645,21 @@
       </c>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
@@ -1673,21 +1673,21 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
@@ -1701,21 +1701,21 @@
       </c>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
@@ -1731,21 +1731,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
@@ -1761,21 +1761,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
@@ -1791,21 +1791,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
@@ -1821,7 +1821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="38"/>
       <c r="C11" s="33"/>
@@ -1832,21 +1832,21 @@
       <c r="H11" s="9"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="15">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="10">
         <v>1106</v>
@@ -1861,21 +1861,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="34">
         <f>F12</f>
@@ -1888,7 +1888,7 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="38"/>
       <c r="C14" s="33"/>
@@ -1898,21 +1898,21 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="10">
         <v>97</v>
@@ -1924,21 +1924,21 @@
         <v>59.972749999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="34">
         <f>F15</f>
@@ -1951,7 +1951,7 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="38"/>
       <c r="C17" s="33"/>
@@ -1961,21 +1961,21 @@
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="15">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="10">
         <v>1025</v>
@@ -1987,21 +1987,21 @@
         <v>59.972749999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="34">
         <f>F18</f>
@@ -2014,7 +2014,7 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="38"/>
       <c r="C20" s="33"/>
@@ -2024,12 +2024,12 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I21" s="35" t="s">
         <v>35</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="15">
         <v>2</v>
@@ -2037,10 +2037,10 @@
       <c r="L21" s="36"/>
       <c r="N21" s="15"/>
       <c r="O21" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I22" s="35"/>
       <c r="J22" s="32"/>
       <c r="K22" s="15"/>
@@ -2048,24 +2048,24 @@
       <c r="N22" s="15"/>
       <c r="O22" s="37"/>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
       <c r="C23" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="15">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>5</v>
@@ -2074,21 +2074,21 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="34" t="str">
         <f t="shared" ref="F24:F26" si="1">F23</f>
@@ -2101,21 +2101,21 @@
         <v>59.972749999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="34" t="str">
         <f t="shared" si="1"/>
@@ -2128,34 +2128,34 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" s="34" t="str">
         <f t="shared" si="1"/>
         <v>37-13439</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="41">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="33"/>
@@ -2165,15 +2165,15 @@
       <c r="G27" s="7"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -2186,7 +2186,7 @@
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="32"/>
@@ -2197,33 +2197,33 @@
       <c r="H29" s="40"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>37</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I30" s="48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I31" s="3"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="15"/>
     </row>
   </sheetData>

--- a/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>Ref Des</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>GI02HYPM-WFP02-00-WFPENG000</t>
+  </si>
+  <si>
+    <t>OL000024</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2178,7 +2181,9 @@
       <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="51">
         <v>13284</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>Ref Des</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>The is the WFP S/N.</t>
-  </si>
-  <si>
-    <t>Inductive ID</t>
   </si>
   <si>
     <t>GI02HYPM</t>
@@ -729,7 +726,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -868,9 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1387,40 +1381,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>22</v>
       </c>
       <c r="M1" s="42"/>
@@ -1428,10 +1422,10 @@
     </row>
     <row r="2" spans="1:14" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>36</v>
@@ -1456,7 +1450,7 @@
         <v>2667</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="47">
@@ -1528,11 +1522,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B39:B40"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -1565,18 +1559,18 @@
         <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1596,7 +1590,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>36</v>
@@ -1605,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="10">
         <v>2350</v>
@@ -1613,7 +1607,7 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="52">
         <v>48</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1625,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>36</v>
@@ -1634,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ref="F4:F10" si="0">F3</f>
@@ -1643,7 +1637,7 @@
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>2.0049999999999999E-6</v>
       </c>
       <c r="I4" s="9"/>
@@ -1653,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>36</v>
@@ -1662,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
@@ -1671,7 +1665,7 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="54">
         <v>47</v>
       </c>
       <c r="I5" s="9"/>
@@ -1681,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>36</v>
@@ -1690,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
@@ -1699,7 +1693,7 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="54">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="I6" s="9"/>
@@ -1709,7 +1703,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>36</v>
@@ -1718,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
@@ -1727,7 +1721,7 @@
       <c r="G7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>140</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -1739,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>36</v>
@@ -1748,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
@@ -1769,7 +1763,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>36</v>
@@ -1778,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
@@ -1787,7 +1781,7 @@
       <c r="G9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="55">
         <v>1.0960000000000001</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -1799,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>36</v>
@@ -1808,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
@@ -1840,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>36</v>
@@ -1849,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10">
         <v>1106</v>
@@ -1869,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -1878,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="34">
         <f>F12</f>
@@ -1906,7 +1900,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>36</v>
@@ -1915,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="10">
         <v>97</v>
@@ -1932,7 +1926,7 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>36</v>
@@ -1941,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="34">
         <f>F15</f>
@@ -1969,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>36</v>
@@ -1978,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="10">
         <v>1025</v>
@@ -1995,7 +1989,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>36</v>
@@ -2004,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="34">
         <f>F18</f>
@@ -2040,7 +2034,7 @@
       <c r="L21" s="36"/>
       <c r="N21" s="15"/>
       <c r="O21" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2053,10 +2047,10 @@
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>36</v>
@@ -2065,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>39</v>
@@ -2073,16 +2067,16 @@
       <c r="G23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="51">
         <v>1450</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>36</v>
@@ -2091,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="34" t="str">
-        <f t="shared" ref="F24:F26" si="1">F23</f>
+        <f t="shared" ref="F24:F25" si="1">F23</f>
         <v>37-13439</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -2106,10 +2100,10 @@
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>36</v>
@@ -2118,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="34" t="str">
         <f t="shared" si="1"/>
@@ -2131,105 +2125,78 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="33" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>37-13439</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="51">
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="50">
         <v>13284</v>
       </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="32" t="s">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="F30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="48" t="s">
+      <c r="I29" s="48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="15"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="3540" windowWidth="25440" windowHeight="13605" activeTab="1"/>
+    <workbookView xWindow="8625" yWindow="3540" windowWidth="25440" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Ref Des</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>GI02HYPM-WFP02-05-VEL3DL000</t>
-  </si>
-  <si>
-    <t>GI02HYPM-MFC04-01-ZPLSGA000</t>
   </si>
   <si>
     <t>GI02HYPM-00002</t>
@@ -182,9 +179,6 @@
     </r>
   </si>
   <si>
-    <t>Not Deployed;  No Calibration Cofficient</t>
-  </si>
-  <si>
     <t>GI02HYPM-RIM01-02-CTDMOG039</t>
   </si>
   <si>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>OL000024</t>
+  </si>
+  <si>
+    <t>GI02HYPM-MPM01-02-ZPLSGA009</t>
+  </si>
+  <si>
+    <t>GI02HYPM-MPM01-02-ZPLSGA010</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -828,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1357,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1381,83 +1378,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="42">
+        <v>2</v>
+      </c>
+      <c r="E2" s="43">
+        <v>42232</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="42">
+        <v>2667</v>
+      </c>
+      <c r="K2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="43">
-        <v>2</v>
-      </c>
-      <c r="E2" s="44">
-        <v>42232</v>
-      </c>
-      <c r="F2" s="45">
-        <v>0.95763888888888893</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="43">
-        <v>2667</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47">
+      <c r="L2" s="45"/>
+      <c r="M2" s="46">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>59.972749999999998</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="46">
         <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-39.523483333333331</v>
       </c>
@@ -1522,11 +1519,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1545,12 +1542,12 @@
     <col min="15" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -1559,22 +1556,22 @@
         <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1585,21 +1582,21 @@
       <c r="H2" s="19"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="15">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="10">
         <v>2350</v>
@@ -1607,28 +1604,39 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="51">
         <v>48</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <f>MATCH(A3,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>MATCH(M3,A:A,0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ref="F4:F10" si="0">F3</f>
@@ -1637,26 +1645,37 @@
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>2.0049999999999999E-6</v>
       </c>
       <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L4" s="3">
+        <f>MATCH(A4,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>MATCH(M4,A:A,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
@@ -1665,26 +1684,37 @@
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="53">
         <v>47</v>
       </c>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L5" s="3">
+        <f>MATCH(A5,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>MATCH(M5,A:A,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
@@ -1693,26 +1723,37 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="53">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L6" s="3">
+        <f>MATCH(A6,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>MATCH(M6,A:A,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
@@ -1721,28 +1762,39 @@
       <c r="G7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>140</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L7" s="3">
+        <f>MATCH(A7,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>MATCH(M7,A:A,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
@@ -1757,22 +1809,33 @@
       <c r="I8" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L8" s="3">
+        <f>MATCH(A8,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>MATCH(M8,A:A,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
@@ -1781,28 +1844,39 @@
       <c r="G9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="54">
         <v>1.0960000000000001</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <f>MATCH(A9,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>MATCH(M9,A:A,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
@@ -1817,10 +1891,21 @@
       <c r="I10" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <f>MATCH(A10,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>MATCH(M10,A:A,0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1828,22 +1913,33 @@
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
       <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="e">
+        <f>MATCH(A11,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>MATCH(M11,A:A,0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="15">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10">
         <v>1106</v>
@@ -1857,22 +1953,26 @@
       <c r="I12" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L12" s="3">
+        <f>MATCH(A12,M:M,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="34">
         <f>F12</f>
@@ -1884,32 +1984,40 @@
       <c r="H13" s="15">
         <v>-39.523483333333331</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <f>MATCH(A13,M:M,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="33"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="34"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L14" s="3" t="e">
+        <f>MATCH(A14,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="10">
         <v>97</v>
@@ -1920,22 +2028,26 @@
       <c r="H15" s="3">
         <v>59.972749999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="L15" s="3">
+        <f>MATCH(A15,M:M,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="34">
         <f>F15</f>
@@ -1947,32 +2059,40 @@
       <c r="H16" s="15">
         <v>-39.523483333333331</v>
       </c>
+      <c r="L16" s="3">
+        <f>MATCH(A16,M:M,0)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="33"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="34"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
+      <c r="L17" s="3" t="e">
+        <f>MATCH(A17,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="15">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="10">
         <v>1025</v>
@@ -1982,6 +2102,10 @@
       </c>
       <c r="H18" s="3">
         <v>59.972749999999998</v>
+      </c>
+      <c r="L18" s="3">
+        <f>MATCH(A18,M:M,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -1989,16 +2113,16 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="34">
         <f>F18</f>
@@ -2010,193 +2134,265 @@
       <c r="H19" s="15">
         <v>-39.523483333333331</v>
       </c>
+      <c r="L19" s="3">
+        <f>MATCH(A19,M:M,0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="33"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="34"/>
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I21" s="35" t="s">
+      <c r="L20" s="3" t="e">
+        <f>MATCH(A20,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="15">
+      <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="37" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I24" s="35"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="3" t="e">
+        <f>MATCH(A24,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="36"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I22" s="35"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="36"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="37"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="C25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="15">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H25" s="50">
         <v>1450</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="L25" s="3">
+        <f>MATCH(A25,M:M,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="34" t="str">
-        <f t="shared" ref="F24:F25" si="1">F23</f>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="34" t="str">
+        <f t="shared" ref="F26:F27" si="1">F25</f>
         <v>37-13439</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H26" s="3">
         <v>59.972749999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="L26" s="3">
+        <f>MATCH(A26,M:M,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="34" t="str">
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="34" t="str">
         <f t="shared" si="1"/>
         <v>37-13439</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H27" s="15">
         <v>-39.523483333333331</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="50">
-        <v>13284</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
+      <c r="L27" s="3">
+        <f>MATCH(A27,M:M,0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="15"/>
+      <c r="L28" s="3" t="e">
+        <f>MATCH(A28,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="15"/>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="49">
+        <v>13284</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="L29" s="3">
+        <f>MATCH(A29,M:M,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="L30" s="3" t="e">
+        <f>MATCH(A30,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="3">
+        <f>MATCH(A31,M:M,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+      <c r="L32" s="3" t="e">
+        <f>MATCH(A32,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GI02HYPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtravis\Desktop\Cal Sheet project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="3540" windowWidth="25440" windowHeight="13605"/>
+    <workbookView xWindow="8628" yWindow="3540" windowWidth="25440" windowHeight="13608" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="83">
   <si>
     <t>Ref Des</t>
   </si>
@@ -182,21 +182,6 @@
     <t>GI02HYPM-RIM01-02-CTDMOG039</t>
   </si>
   <si>
-    <r>
-      <t>GI02HYPM-RIM01-02-CTDMOG0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>39</t>
-    </r>
-  </si>
-  <si>
     <t>Mooring OOIBARCODE</t>
   </si>
   <si>
@@ -240,18 +225,94 @@
   </si>
   <si>
     <t>GI02HYPM-MPM01-02-ZPLSGA010</t>
+  </si>
+  <si>
+    <t>Induction ID</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>CC_wbotc</t>
+  </si>
+  <si>
+    <t>CC_a0</t>
+  </si>
+  <si>
+    <t>CC_a1</t>
+  </si>
+  <si>
+    <t>CC_a2</t>
+  </si>
+  <si>
+    <t>CC_a3</t>
+  </si>
+  <si>
+    <t>CC_ptempa0</t>
+  </si>
+  <si>
+    <t>CC_ptempa1</t>
+  </si>
+  <si>
+    <t>CC_ptempa2</t>
+  </si>
+  <si>
+    <t>CC_ptca0</t>
+  </si>
+  <si>
+    <t>CC_ptca1</t>
+  </si>
+  <si>
+    <t>CC_ptca2</t>
+  </si>
+  <si>
+    <t>CC_ptcb0</t>
+  </si>
+  <si>
+    <t>CC_ptcb1</t>
+  </si>
+  <si>
+    <t>CC_ptcb2</t>
+  </si>
+  <si>
+    <t>CC_pa0</t>
+  </si>
+  <si>
+    <t>CC_pa1</t>
+  </si>
+  <si>
+    <t>CC_pa2</t>
+  </si>
+  <si>
+    <t>CC_g</t>
+  </si>
+  <si>
+    <t>CC_h</t>
+  </si>
+  <si>
+    <t>CC_i</t>
+  </si>
+  <si>
+    <t>CC_j</t>
+  </si>
+  <si>
+    <t>CC_cpcor</t>
+  </si>
+  <si>
+    <t>CC_ctcor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -522,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -582,6 +643,17 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -726,7 +798,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -892,6 +964,30 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="139">
@@ -1354,32 +1450,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="11"/>
+    <col min="2" max="2" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>0</v>
@@ -1417,9 +1513,9 @@
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>40</v>
@@ -1459,49 +1555,49 @@
         <v>-39.523483333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="5:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -1519,35 +1615,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="11" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="15" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="15" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="5" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="3"/>
+    <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -1556,7 +1652,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>2</v>
@@ -1571,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1582,12 +1678,12 @@
       <c r="H2" s="19"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
@@ -1596,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="10">
         <v>2350</v>
@@ -1611,23 +1707,23 @@
         <v>31</v>
       </c>
       <c r="L3" s="3">
-        <f>MATCH(A3,M:M,0)</f>
+        <f t="shared" ref="L3:L20" si="0">MATCH(A3,M:M,0)</f>
         <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q11" si="1">MATCH(M3,A:A,0)</f>
         <v>55</v>
       </c>
-      <c r="Q3" s="3">
-        <f>MATCH(M3,A:A,0)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -1636,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="34">
-        <f t="shared" ref="F4:F10" si="0">F3</f>
+        <f t="shared" ref="F4:F10" si="2">F3</f>
         <v>2350</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1650,23 +1746,23 @@
       </c>
       <c r="I4" s="9"/>
       <c r="L4" s="3">
-        <f>MATCH(A4,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Q4" s="3">
-        <f>MATCH(M4,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
@@ -1675,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2350</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1689,23 +1785,23 @@
       </c>
       <c r="I5" s="9"/>
       <c r="L5" s="3">
-        <f>MATCH(A5,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="3">
-        <f>MATCH(M5,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>35</v>
@@ -1714,10 +1810,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2350</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1728,23 +1824,23 @@
       </c>
       <c r="I6" s="9"/>
       <c r="L6" s="3">
-        <f>MATCH(A6,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="3">
-        <f>MATCH(M6,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
@@ -1753,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2350</v>
       </c>
       <c r="G7" s="26" t="s">
@@ -1769,23 +1865,23 @@
         <v>25</v>
       </c>
       <c r="L7" s="3">
-        <f>MATCH(A7,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="3">
-        <f>MATCH(M7,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
@@ -1794,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2350</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -1810,23 +1906,23 @@
         <v>25</v>
       </c>
       <c r="L8" s="3">
-        <f>MATCH(A8,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="3">
-        <f>MATCH(M8,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>35</v>
@@ -1835,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2350</v>
       </c>
       <c r="G9" s="26" t="s">
@@ -1851,23 +1947,23 @@
         <v>25</v>
       </c>
       <c r="L9" s="3">
-        <f>MATCH(A9,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="3">
-        <f>MATCH(M9,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
@@ -1876,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2350</v>
       </c>
       <c r="G10" s="26" t="s">
@@ -1892,18 +1988,18 @@
         <v>25</v>
       </c>
       <c r="L10" s="3">
-        <f>MATCH(A10,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="3">
-        <f>MATCH(M10,A:A,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="37"/>
       <c r="C11" s="33"/>
@@ -1914,23 +2010,23 @@
       <c r="H11" s="9"/>
       <c r="I11" s="13"/>
       <c r="L11" s="3" t="e">
-        <f>MATCH(A11,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="3">
-        <f>MATCH(M11,A:A,0)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -1939,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="10">
         <v>1106</v>
@@ -1954,16 +2050,16 @@
         <v>23</v>
       </c>
       <c r="L12" s="3">
-        <f>MATCH(A12,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
@@ -1972,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="34">
         <f>F12</f>
@@ -1985,11 +2081,11 @@
         <v>-39.523483333333331</v>
       </c>
       <c r="L13" s="3">
-        <f>MATCH(A13,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="37"/>
       <c r="C14" s="33"/>
@@ -1999,16 +2095,16 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="L14" s="3" t="e">
-        <f>MATCH(A14,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -2017,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="10">
         <v>97</v>
@@ -2029,16 +2125,16 @@
         <v>59.972749999999998</v>
       </c>
       <c r="L15" s="3">
-        <f>MATCH(A15,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
@@ -2047,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="34">
         <f>F15</f>
@@ -2060,11 +2156,11 @@
         <v>-39.523483333333331</v>
       </c>
       <c r="L16" s="3">
-        <f>MATCH(A16,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="37"/>
       <c r="C17" s="33"/>
@@ -2074,16 +2170,16 @@
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
       <c r="L17" s="3" t="e">
-        <f>MATCH(A17,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
@@ -2092,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="10">
         <v>1025</v>
@@ -2104,16 +2200,16 @@
         <v>59.972749999999998</v>
       </c>
       <c r="L18" s="3">
-        <f>MATCH(A18,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>35</v>
@@ -2122,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="34">
         <f>F18</f>
@@ -2135,11 +2231,11 @@
         <v>-39.523483333333331</v>
       </c>
       <c r="L19" s="3">
-        <f>MATCH(A19,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="37"/>
       <c r="C20" s="33"/>
@@ -2149,16 +2245,16 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
       <c r="L20" s="3" t="e">
-        <f>MATCH(A20,M:M,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>35</v>
@@ -2170,8 +2266,12 @@
       <c r="F21" s="34"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="e">
+        <f>MATCH(A24,M:M,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="37"/>
       <c r="C22" s="33"/>
       <c r="D22" s="5"/>
@@ -2179,13 +2279,17 @@
       <c r="F22" s="34"/>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="L22" s="3">
+        <f>MATCH(A25,M:M,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>35</v>
@@ -2197,24 +2301,28 @@
       <c r="F23" s="34"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <f>MATCH(A26,M:M,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I24" s="35"/>
       <c r="J24" s="32"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="3" t="e">
-        <f>MATCH(A24,M:M,0)</f>
-        <v>#N/A</v>
+      <c r="L24" s="3">
+        <f>MATCH(A27,M:M,0)</f>
+        <v>10</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="36"/>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
@@ -2222,181 +2330,852 @@
       <c r="D25" s="15">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>49</v>
+      <c r="E25" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="60">
+        <v>39</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="61">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="37">
+        <v>2</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="34" t="str">
+        <f t="shared" ref="F26:F51" si="3">F25</f>
+        <v>37-13439</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="62">
+        <v>59.97274333</v>
+      </c>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="37">
+        <v>2</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="62">
+        <v>-39.524836669999999</v>
+      </c>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="37">
+        <v>2</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G28" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H28" s="60">
         <v>1450</v>
       </c>
-      <c r="L25" s="3">
-        <f>MATCH(A25,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="34" t="str">
-        <f t="shared" ref="F26:F27" si="1">F25</f>
+      <c r="B29" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="37">
+        <v>2</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>37-13439</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3">
-        <v>59.972749999999998</v>
-      </c>
-      <c r="L26" s="3">
-        <f>MATCH(A26,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="G29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="65">
+        <v>2.181E-7</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="50"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="B30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="37">
+        <v>2</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>37-13439</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="15">
-        <v>-39.523483333333331</v>
-      </c>
-      <c r="L27" s="3">
-        <f>MATCH(A27,M:M,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="15"/>
-      <c r="L28" s="3" t="e">
-        <f>MATCH(A28,M:M,0)</f>
+      <c r="G30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="64">
+        <v>-1.491446E-4</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="37">
+        <v>2</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="64">
+        <v>3.0659459999999997E-4</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="37">
+        <v>2</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="64">
+        <v>-4.0681540000000003E-6</v>
+      </c>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="37">
+        <v>2</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="64">
+        <v>1.9251169999999999E-7</v>
+      </c>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="37">
+        <v>2</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="65">
+        <v>177.804</v>
+      </c>
+      <c r="I34" s="63"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="37">
+        <v>2</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="65">
+        <v>-6.7802710000000002E-2</v>
+      </c>
+      <c r="I35" s="63"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="37">
+        <v>2</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="65">
+        <v>1.7016089999999999E-7</v>
+      </c>
+      <c r="I36" s="63"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="65">
+        <v>525018.6</v>
+      </c>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="37">
+        <v>2</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="65">
+        <v>3.1673089999999999</v>
+      </c>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="37">
+        <v>2</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="65">
+        <v>-8.4412639999999997E-2</v>
+      </c>
+      <c r="I39" s="63"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="37">
+        <v>2</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="65">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="I40" s="63"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="37">
+        <v>2</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="65">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I41" s="63"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="37">
+        <v>2</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="65">
+        <v>0</v>
+      </c>
+      <c r="I42" s="63"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="37">
+        <v>2</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="64">
+        <v>0.12880649999999999</v>
+      </c>
+      <c r="I43" s="63"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="37">
+        <v>2</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="64">
+        <v>4.5417419999999997E-3</v>
+      </c>
+      <c r="I44" s="63"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="37">
+        <v>2</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="64">
+        <v>-2.5232639999999999E-11</v>
+      </c>
+      <c r="I45" s="63"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="37">
+        <v>2</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="65">
+        <v>-0.98848049999999998</v>
+      </c>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="37">
+        <v>2</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="65">
+        <v>0.13849449999999999</v>
+      </c>
+      <c r="I47" s="63"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="37">
+        <v>2</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="65">
+        <v>-2.013377E-4</v>
+      </c>
+      <c r="I48" s="63"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="37">
+        <v>2</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="65">
+        <v>3.3730920000000001E-5</v>
+      </c>
+      <c r="I49" s="63"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="37">
+        <v>2</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="65">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+      <c r="I50" s="63"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="37">
+        <v>2</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>37-13439</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="65">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="I51" s="63"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="37"/>
+      <c r="B52"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="5"/>
+      <c r="E52"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="49">
+        <v>13284</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="40"/>
+      <c r="L53" s="3">
+        <f>MATCH(A53,M:M,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="40"/>
+      <c r="L54" s="3" t="e">
+        <f>MATCH(A54,M:M,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="49">
-        <v>13284</v>
-      </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="L29" s="3">
-        <f>MATCH(A29,M:M,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="L30" s="3" t="e">
-        <f>MATCH(A30,M:M,0)</f>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="3">
+        <f>MATCH(A55,M:M,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I56" s="3"/>
+      <c r="L56" s="3" t="e">
+        <f>MATCH(A56,M:M,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="3">
-        <f>MATCH(A31,M:M,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I32" s="3"/>
-      <c r="L32" s="3" t="e">
-        <f>MATCH(A32,M:M,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="15"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H61" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
